--- a/Tabella user stories.xlsx
+++ b/Tabella user stories.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B520575-BC50-4E1C-8EE8-2E0CF1D71BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="User Stories Pre-Gaming" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="User Stories 1st Sprint Plannin" sheetId="2" r:id="rId5"/>
+    <sheet name="User Stories Pre-Gaming" sheetId="1" r:id="rId1"/>
+    <sheet name="User Stories 1st Sprint Plannin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -248,25 +257,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -277,11 +287,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="14">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF0077BF"/>
@@ -295,6 +311,7 @@
       <bottom style="thin">
         <color rgb="FF0077BF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -309,6 +326,7 @@
       <bottom style="thin">
         <color rgb="FF0077BF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -323,6 +341,7 @@
       <bottom style="thin">
         <color rgb="FF0077BF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -337,6 +356,7 @@
       <bottom style="thin">
         <color rgb="FF4A86E8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -351,6 +371,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -365,6 +386,7 @@
       <bottom style="thin">
         <color rgb="FF009FFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -379,6 +401,7 @@
       <bottom style="thin">
         <color rgb="FF4A86E8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -393,6 +416,7 @@
       <bottom style="thin">
         <color rgb="FF4A86E8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -407,6 +431,7 @@
       <bottom style="thin">
         <color rgb="FF4A86E8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -421,6 +446,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -435,6 +461,7 @@
       <bottom style="thin">
         <color rgb="FF4A86E8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -449,6 +476,7 @@
       <bottom style="thin">
         <color rgb="FF4A86E8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -463,183 +491,187 @@
       <bottom style="thin">
         <color rgb="FF0077BF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF009FFF"/>
           <bgColor rgb="FF009FFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
+          <fgColor rgb="FF009FFF"/>
+          <bgColor rgb="FF009FFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle count="3" pivot="0" name="User Stories Pre-Gaming-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="User Stories Pre-Gaming-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="User Stories 1st Sprint Plannin-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="User Stories 1st Sprint Plannin-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G19" displayName="User_stories" name="User_stories" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="User_stories" displayName="User_stories" ref="A1:G19">
   <tableColumns count="7">
-    <tableColumn name="ID e nome" id="1"/>
-    <tableColumn name="User epic" id="2"/>
-    <tableColumn name="Descrizione" id="3"/>
-    <tableColumn name="Value Points" id="4"/>
-    <tableColumn name="Story Points" id="5"/>
-    <tableColumn name="BFTB" id="6"/>
-    <tableColumn name="Acceptance Criteria" id="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID e nome"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="User epic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descrizione"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value Points"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Story Points"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="BFTB"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria"/>
   </tableColumns>
-  <tableStyleInfo name="User Stories Pre-Gaming-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="User Stories Pre-Gaming-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H9" displayName="User_stories_1st_Sprint_Planning" name="User_stories_1st_Sprint_Planning" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="User_stories_1st_Sprint_Planning" displayName="User_stories_1st_Sprint_Planning" ref="A1:H9">
   <tableColumns count="8">
-    <tableColumn name="ID e nome" id="1"/>
-    <tableColumn name="User epic" id="2"/>
-    <tableColumn name="Descrizione" id="3"/>
-    <tableColumn name="Value Points" id="4"/>
-    <tableColumn name="Story Points" id="5"/>
-    <tableColumn name="BFTB" id="6"/>
-    <tableColumn name="Acceptance Criteria" id="7"/>
-    <tableColumn name="Membro del team responsabile" id="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID e nome"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="User epic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Descrizione"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Value Points"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Story Points"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="BFTB"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Acceptance Criteria"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Membro del team responsabile"/>
   </tableColumns>
-  <tableStyleInfo name="User Stories 1st Sprint Plannin-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="User Stories 1st Sprint Plannin-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -829,32 +861,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="55.88"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="34.75"/>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="20.88"/>
-    <col customWidth="1" min="6" max="6" width="21.38"/>
-    <col customWidth="1" min="7" max="7" width="53.5"/>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="53.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="57.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -887,20 +922,20 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7">
-        <v>89.0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>89.0</v>
+      <c r="D2" s="5">
+        <v>89</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>89</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -910,20 +945,20 @@
       <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
-        <v>89.0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>18.0</v>
+      <c r="D3" s="5">
+        <v>89</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -933,20 +968,20 @@
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>18.0</v>
+      <c r="D4" s="5">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -956,20 +991,20 @@
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>18.0</v>
+      <c r="D5" s="5">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -979,20 +1014,20 @@
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3.0</v>
+      <c r="D6" s="5">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1002,20 +1037,20 @@
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>11.0</v>
+      <c r="D7" s="5">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1025,20 +1060,20 @@
       <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7.0</v>
+      <c r="D8" s="5">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1048,20 +1083,20 @@
       <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>11.0</v>
+      <c r="D9" s="5">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1071,89 +1106,89 @@
       <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>11.0</v>
+      <c r="D10" s="5">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>18.0</v>
+      <c r="D11" s="5">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="100" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10">
-        <v>34.0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>7.0</v>
+      <c r="D12" s="9">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>7.0</v>
+      <c r="D13" s="5">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1163,20 +1198,20 @@
       <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3.0</v>
+      <c r="D14" s="5">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1186,20 +1221,20 @@
       <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>11.0</v>
+      <c r="D15" s="5">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -1209,20 +1244,20 @@
       <c r="C16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>7.0</v>
+      <c r="D16" s="5">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -1232,43 +1267,43 @@
       <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>11.0</v>
+      <c r="D17" s="5">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>7.0</v>
+      <c r="D18" s="5">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
@@ -1278,57 +1313,58 @@
       <c r="C19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>7.0</v>
+      <c r="D19" s="5">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:F19">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:F19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(D2),(NOT(OR(NOT(ISERROR(DATEVALUE(D2))), AND(ISNUMBER(D2), LEFT(CELL("format", D2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:C19 G2:G19"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:C19 G2:G19" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="55.88"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="34.75"/>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="20.88"/>
-    <col customWidth="1" min="6" max="6" width="21.38"/>
-    <col customWidth="1" min="7" max="7" width="53.5"/>
-    <col customWidth="1" min="8" max="8" width="31.75"/>
+    <col min="1" max="1" width="39.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="42.1796875" customWidth="1"/>
+    <col min="8" max="8" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,59 +1386,59 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19">
-        <v>89.0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>89.0</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="D3" s="17">
+        <v>89</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
+        <v>89</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4">
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1412,21 +1448,21 @@
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>89.0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="D4" s="5">
+        <v>89</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>18</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5">
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1436,21 +1472,21 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="D5" s="5">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="162.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1460,21 +1496,21 @@
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="D6" s="5">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>18</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7">
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="125" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1484,21 +1520,21 @@
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="D7" s="5">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>11</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8">
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1508,54 +1544,54 @@
       <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="D8" s="5">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9">
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="125" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7">
-        <v>55.0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="D9" s="5">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>18</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:F9">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:F9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>AND(ISNUMBER(D2),(NOT(OR(NOT(ISERROR(DATEVALUE(D2))), AND(ISNUMBER(D2), LEFT(CELL("format", D2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:C9 G2:H9"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:C9 G2:H9" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>